--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linco\Documents\Público\Pessoal\Estudos\streamlit\Pythonando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC317EE-F81F-4A81-A3A3-E436034F9950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0668B0A8-EB11-4979-8B1C-272E95376A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5DBD2B94-81C0-4838-B20C-D5AC3920124A}"/>
+    <workbookView xWindow="6720" yWindow="4095" windowWidth="21600" windowHeight="11385" xr2:uid="{5DBD2B94-81C0-4838-B20C-D5AC3920124A}"/>
   </bookViews>
   <sheets>
     <sheet name="dados" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Projeto</t>
   </si>
@@ -59,22 +59,22 @@
     <t>REGMEL</t>
   </si>
   <si>
-    <t>RECEITA</t>
-  </si>
-  <si>
     <t>TTS</t>
   </si>
   <si>
     <t>CAMPO</t>
   </si>
   <si>
-    <t>BM-01</t>
-  </si>
-  <si>
     <t>CUSTO</t>
   </si>
   <si>
-    <t>Placa de Obra - 50%</t>
+    <t>TTS - Com. Bola na Rede</t>
+  </si>
+  <si>
+    <t>50% - Placa de Obra</t>
+  </si>
+  <si>
+    <t>50% + Transporte - Placa de Obra</t>
   </si>
 </sst>
 </file>
@@ -958,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B4E5DA-CF18-4382-AFE0-B2EB8B93E94F}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,7 +969,7 @@
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -1003,47 +1003,47 @@
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>45455</v>
+        <v>45481</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G2" s="4">
         <f>E2*F2</f>
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45480</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
-        <v>45456</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G7" si="0">E3*F3</f>
-        <v>200</v>
+        <f t="shared" ref="G3:G6" si="0">E3*F3</f>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1051,37 +1051,37 @@
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>45485</v>
+        <v>45481</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4" s="4">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>45517</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -1096,16 +1096,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>45491</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -1118,32 +1118,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45498</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>200</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="5"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linco\Documents\Público\Pessoal\Estudos\streamlit\Pythonando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0668B0A8-EB11-4979-8B1C-272E95376A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC67C60C-2DB0-47B0-A841-B0F19F51FE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6720" yWindow="4095" windowWidth="21600" windowHeight="11385" xr2:uid="{5DBD2B94-81C0-4838-B20C-D5AC3920124A}"/>
   </bookViews>
@@ -961,7 +961,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,7 +1075,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>45517</v>
+        <v>45485</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1099,7 +1099,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>45491</v>
+        <v>45489</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linco\Documents\Público\Pessoal\Estudos\streamlit\Pythonando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC67C60C-2DB0-47B0-A841-B0F19F51FE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFCE2AB-FB39-4905-9AA6-7B6523D182E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6720" yWindow="4095" windowWidth="21600" windowHeight="11385" xr2:uid="{5DBD2B94-81C0-4838-B20C-D5AC3920124A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Projeto</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>50% + Transporte - Placa de Obra</t>
+  </si>
+  <si>
+    <t>TTS - Tansporte Reunião Jacarapé</t>
   </si>
 </sst>
 </file>
@@ -961,7 +964,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,13 +1030,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>45480</v>
+        <v>45478</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linco\Documents\Público\Pessoal\Estudos\streamlit\Pythonando\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linco\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFCE2AB-FB39-4905-9AA6-7B6523D182E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAFE433F-B827-4D1A-A64A-34184BF34843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="4095" windowWidth="21600" windowHeight="11385" xr2:uid="{5DBD2B94-81C0-4838-B20C-D5AC3920124A}"/>
+    <workbookView xWindow="4500" yWindow="840" windowWidth="21600" windowHeight="11385" xr2:uid="{5DBD2B94-81C0-4838-B20C-D5AC3920124A}"/>
   </bookViews>
   <sheets>
     <sheet name="dados" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Projeto</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>TTS - Tansporte Reunião Jacarapé</t>
+  </si>
+  <si>
+    <t>RECEITA</t>
+  </si>
+  <si>
+    <t>BM01</t>
   </si>
 </sst>
 </file>
@@ -964,7 +970,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,7 +1051,7 @@
         <v>100</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G6" si="0">E3*F3</f>
+        <f t="shared" ref="G3:G7" si="0">E3*F3</f>
         <v>100</v>
       </c>
     </row>
@@ -1121,7 +1127,44 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45506</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>20000</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+    </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
       <c r="D12" s="5"/>
     </row>
   </sheetData>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linco\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linco\Documents\Público\Pessoal\Estudos\streamlit\Lcl Finanças\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAFE433F-B827-4D1A-A64A-34184BF34843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1837A6B-5DE0-44F3-BAB2-A08725E03426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="840" windowWidth="21600" windowHeight="11385" xr2:uid="{5DBD2B94-81C0-4838-B20C-D5AC3920124A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{5DBD2B94-81C0-4838-B20C-D5AC3920124A}"/>
   </bookViews>
   <sheets>
     <sheet name="dados" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="45">
   <si>
     <t>Projeto</t>
   </si>
@@ -80,16 +80,103 @@
     <t>TTS - Tansporte Reunião Jacarapé</t>
   </si>
   <si>
-    <t>RECEITA</t>
-  </si>
-  <si>
-    <t>BM01</t>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>FERRO CA60 5.0MM RETO</t>
+  </si>
+  <si>
+    <t>FERRO CA50 1/4 [6,30MM]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERRO CA50 5/16 [8,00MM] </t>
+  </si>
+  <si>
+    <t>FERRO CA50 3/8 [10,00MM]</t>
+  </si>
+  <si>
+    <t>FERRO CA50 1/2 [12,50MM]</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>Desc 10%</t>
+  </si>
+  <si>
+    <t>MÃO DE OBRA</t>
+  </si>
+  <si>
+    <t>PLOTAGEM DE PROJETOS</t>
+  </si>
+  <si>
+    <t>TABUA MISTA 30CM (120 MT)</t>
+  </si>
+  <si>
+    <t>TABUA MISTA 15CM (120 MT)</t>
+  </si>
+  <si>
+    <t>CAIBRO MISTA 1M (100 UND)</t>
+  </si>
+  <si>
+    <t>und</t>
+  </si>
+  <si>
+    <t>barra</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>BRITA 19</t>
+  </si>
+  <si>
+    <t>ton</t>
+  </si>
+  <si>
+    <t>000.007.981</t>
+  </si>
+  <si>
+    <t>PREGO C/C DUPLA 2.1/2x10 GERDAU</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>000.005.683</t>
+  </si>
+  <si>
+    <t>PREGO 2 X 12 (16 x 21)</t>
+  </si>
+  <si>
+    <t>LINHA P/ PEDREIRO TRANCADA 100MT</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>localizar NF</t>
+  </si>
+  <si>
+    <t>CIMENTO</t>
+  </si>
+  <si>
+    <t>SC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -226,9 +313,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -537,7 +622,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -580,8 +665,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -591,9 +677,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="33" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -636,6 +730,7 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Vírgula" xfId="42" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -967,207 +1062,724 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B4E5DA-CF18-4382-AFE0-B2EB8B93E94F}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>45481</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="4">
+      <c r="H2" s="6">
         <v>200</v>
       </c>
-      <c r="G2" s="4">
-        <f>E2*F2</f>
+      <c r="I2" s="6">
+        <f>G2*H2</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>45478</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="4">
+      <c r="H3" s="6">
         <v>100</v>
       </c>
-      <c r="G3" s="4">
-        <f t="shared" ref="G3:G7" si="0">E3*F3</f>
+      <c r="I3" s="6">
+        <f t="shared" ref="I3:I21" si="0">G3*H3</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>45481</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="4">
+      <c r="H4" s="6">
         <v>300</v>
       </c>
-      <c r="G4" s="4">
+      <c r="I4" s="6">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>45485</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="4">
+      <c r="H5" s="6">
         <v>950</v>
       </c>
-      <c r="G5" s="4">
+      <c r="I5" s="6">
         <f t="shared" si="0"/>
         <v>950</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>45489</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="4">
+      <c r="H6" s="6">
         <v>1000</v>
       </c>
-      <c r="G6" s="4">
+      <c r="I6" s="6">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>45506</v>
-      </c>
-      <c r="C7" t="s">
+        <v>45503</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <f>"000033819"</f>
+        <v>000033819</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="4">
+        <v>7</v>
+      </c>
+      <c r="H7" s="6">
+        <v>13.499671613472472</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="0"/>
+        <v>94.497701294307305</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f t="shared" ref="C8:C11" si="1">"000033819"</f>
+        <v>000033819</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="4">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="H8" s="6">
+        <v>20.600498882158991</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="0"/>
+        <v>309.00748323238486</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000033819</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="4">
+        <v>19</v>
+      </c>
+      <c r="H9" s="6">
+        <v>30.896248432700663</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="0"/>
+        <v>587.0287202213126</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000033819</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="4">
+        <v>25</v>
+      </c>
+      <c r="H10" s="6">
+        <v>45.898883485806401</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="0"/>
+        <v>1147.47208714516</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>000033819</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="4">
+        <v>8</v>
+      </c>
+      <c r="H11" s="6">
+        <v>71.899251013354387</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="0"/>
+        <v>575.1940081068351</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45504</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="4">
-        <v>20000</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="H12" s="6">
+        <v>10000</v>
+      </c>
+      <c r="I12" s="6">
         <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="D12" s="5"/>
+        <v>10000</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2024000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
+        <v>356</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="0"/>
+        <v>356</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C14" s="4">
+        <v>4340</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="4">
+        <v>120</v>
+      </c>
+      <c r="H14" s="6">
+        <f>I14/G14</f>
+        <v>18.536608536585369</v>
+      </c>
+      <c r="I14" s="6">
+        <v>2224.3930243902441</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4340</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="4">
+        <v>120</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" ref="H15:H16" si="2">I15/G15</f>
+        <v>9.2683042682926846</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1112.1965121951221</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4340</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="4">
+        <v>100</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="2"/>
+        <v>4.6341463414634152</v>
+      </c>
+      <c r="I16" s="6">
+        <v>463.41463414634148</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="4">
+        <v>17.64</v>
+      </c>
+      <c r="H17" s="6">
+        <f>I17/G17</f>
+        <v>77.664399092970513</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1370</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C18" s="4">
+        <v>5146</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="4">
+        <v>4</v>
+      </c>
+      <c r="H18" s="6">
+        <f>I18/G18</f>
+        <v>29</v>
+      </c>
+      <c r="I18" s="6">
+        <v>116</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="4">
+        <v>4</v>
+      </c>
+      <c r="H19" s="6">
+        <v>22.25</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="4">
+        <v>3</v>
+      </c>
+      <c r="H20" s="6">
+        <v>10</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45503</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="4">
+        <v>100</v>
+      </c>
+      <c r="H21" s="6">
+        <v>31</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="0"/>
+        <v>3100</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linco\Documents\Público\Pessoal\Estudos\streamlit\Lcl Finanças\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1837A6B-5DE0-44F3-BAB2-A08725E03426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671FD9A9-28BD-4BB3-A565-D85CF542A5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{5DBD2B94-81C0-4838-B20C-D5AC3920124A}"/>
+    <workbookView xWindow="4500" yWindow="840" windowWidth="21600" windowHeight="11385" xr2:uid="{5DBD2B94-81C0-4838-B20C-D5AC3920124A}"/>
   </bookViews>
   <sheets>
     <sheet name="dados" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="46">
   <si>
     <t>Projeto</t>
   </si>
@@ -161,13 +161,16 @@
     <t>pc</t>
   </si>
   <si>
-    <t>localizar NF</t>
-  </si>
-  <si>
     <t>CIMENTO</t>
   </si>
   <si>
     <t>SC</t>
+  </si>
+  <si>
+    <t>providenciar NF</t>
+  </si>
+  <si>
+    <t>DRONE DJI AIR 2S FLY MORE COMBO</t>
   </si>
 </sst>
 </file>
@@ -1062,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B4E5DA-CF18-4382-AFE0-B2EB8B93E94F}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,7 +1175,7 @@
         <v>100</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" ref="I3:I21" si="0">G3*H3</f>
+        <f t="shared" ref="I3:I22" si="0">G3*H3</f>
         <v>100</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -1242,7 +1245,7 @@
         <v>950</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1275,7 +1278,7 @@
         <v>1000</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1759,10 +1762,10 @@
         <v>10</v>
       </c>
       <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" t="s">
         <v>43</v>
-      </c>
-      <c r="F21" t="s">
-        <v>44</v>
       </c>
       <c r="G21" s="4">
         <v>100</v>
@@ -1775,7 +1778,38 @@
         <v>3100</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45499</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f>"000638"</f>
+        <v>000638</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6">
+        <v>9790</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="0"/>
+        <v>9790</v>
       </c>
     </row>
   </sheetData>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linco\Documents\Público\Pessoal\Estudos\streamlit\Lcl Finanças\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671FD9A9-28BD-4BB3-A565-D85CF542A5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26479C01-D5B9-42B4-8244-DA070D250326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="840" windowWidth="21600" windowHeight="11385" xr2:uid="{5DBD2B94-81C0-4838-B20C-D5AC3920124A}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{5DBD2B94-81C0-4838-B20C-D5AC3920124A}"/>
   </bookViews>
   <sheets>
     <sheet name="dados" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="50">
   <si>
     <t>Projeto</t>
   </si>
@@ -161,9 +161,6 @@
     <t>pc</t>
   </si>
   <si>
-    <t>CIMENTO</t>
-  </si>
-  <si>
     <t>SC</t>
   </si>
   <si>
@@ -171,6 +168,21 @@
   </si>
   <si>
     <t>DRONE DJI AIR 2S FLY MORE COMBO</t>
+  </si>
+  <si>
+    <t>CIMENTO CP II F 32 ENSACADO 50KG - MOC</t>
+  </si>
+  <si>
+    <t>000.002.109</t>
+  </si>
+  <si>
+    <t>ART - EXECUÇÃO (CARAMURU)</t>
+  </si>
+  <si>
+    <t>RACHINHA</t>
+  </si>
+  <si>
+    <t>vb</t>
   </si>
 </sst>
 </file>
@@ -670,7 +682,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -688,6 +700,21 @@
     </xf>
     <xf numFmtId="43" fontId="13" fillId="33" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1065,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B4E5DA-CF18-4382-AFE0-B2EB8B93E94F}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,7 +1272,7 @@
         <v>950</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1278,7 +1305,7 @@
         <v>1000</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1748,37 +1775,37 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:10" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="9">
         <v>45503</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="C21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="G21" s="10">
         <v>100</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="12">
         <v>31</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="12">
         <f t="shared" si="0"/>
         <v>3100</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>44</v>
+      <c r="J21" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1796,7 +1823,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
         <v>30</v>
@@ -1810,6 +1837,108 @@
       <c r="I22" s="6">
         <f t="shared" si="0"/>
         <v>9790</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45505</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6">
+        <v>10000</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" ref="I23" si="3">G23*H23</f>
+        <v>10000</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45505</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6">
+        <v>262.55</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" ref="I24:I25" si="4">G24*H24</f>
+        <v>262.55</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45506</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1070</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="4"/>
+        <v>1070</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linco\Documents\Público\Pessoal\Estudos\streamlit\Lcl Finanças\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26479C01-D5B9-42B4-8244-DA070D250326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03497D12-E384-4B98-BE5D-25092A6DDB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{5DBD2B94-81C0-4838-B20C-D5AC3920124A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{5DBD2B94-81C0-4838-B20C-D5AC3920124A}"/>
   </bookViews>
   <sheets>
     <sheet name="dados" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="62">
   <si>
     <t>Projeto</t>
   </si>
@@ -183,6 +183,42 @@
   </si>
   <si>
     <t>vb</t>
+  </si>
+  <si>
+    <t>Fornecedor</t>
+  </si>
+  <si>
+    <t>VIEIRA AÇO</t>
+  </si>
+  <si>
+    <t>RONALDO</t>
+  </si>
+  <si>
+    <t>CIMENTAR</t>
+  </si>
+  <si>
+    <t>RR MADEIREIRA</t>
+  </si>
+  <si>
+    <t>PREDREIRA CORDEIRO</t>
+  </si>
+  <si>
+    <t>CASAS SANDINY</t>
+  </si>
+  <si>
+    <t>HERMANO REGIS</t>
+  </si>
+  <si>
+    <t>DRONE AIR</t>
+  </si>
+  <si>
+    <t>CREA -PB</t>
+  </si>
+  <si>
+    <t>AMANDA</t>
+  </si>
+  <si>
+    <t>PLANOS CONSTRUÇÃO DE EDIFICIO</t>
   </si>
 </sst>
 </file>
@@ -1092,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B4E5DA-CF18-4382-AFE0-B2EB8B93E94F}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,15 +1139,16 @@
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1121,29 +1158,32 @@
       <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1153,30 +1193,33 @@
       <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
+      <c r="D2" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="6">
+      <c r="I2" s="6">
         <v>200</v>
       </c>
-      <c r="I2" s="6">
-        <f>G2*H2</f>
+      <c r="J2" s="6">
+        <f>H2*I2</f>
         <v>200</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1186,30 +1229,33 @@
       <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
+      <c r="D3" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>1</v>
       </c>
-      <c r="H3" s="6">
+      <c r="I3" s="6">
         <v>100</v>
       </c>
-      <c r="I3" s="6">
-        <f t="shared" ref="I3:I22" si="0">G3*H3</f>
+      <c r="J3" s="6">
+        <f t="shared" ref="J3:J22" si="0">H3*I3</f>
         <v>100</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1219,30 +1265,33 @@
       <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
+      <c r="D4" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>1</v>
       </c>
-      <c r="H4" s="6">
+      <c r="I4" s="6">
         <v>300</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="6">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1252,30 +1301,33 @@
       <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>1</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="6">
         <v>950</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="6">
         <f t="shared" si="0"/>
         <v>950</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1285,30 +1337,33 @@
       <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>1</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6" s="6">
         <v>1000</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="6">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1319,30 +1374,33 @@
         <f>"000033819"</f>
         <v>000033819</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
+      <c r="D7" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>7</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <v>13.499671613472472</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <f t="shared" si="0"/>
         <v>94.497701294307305</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1353,30 +1411,33 @@
         <f t="shared" ref="C8:C11" si="1">"000033819"</f>
         <v>000033819</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
+      <c r="D8" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>15</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8" s="6">
         <v>20.600498882158991</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="6">
         <f t="shared" si="0"/>
         <v>309.00748323238486</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1387,30 +1448,33 @@
         <f t="shared" si="1"/>
         <v>000033819</v>
       </c>
-      <c r="D9" t="s">
-        <v>10</v>
+      <c r="D9" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>19</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <v>30.896248432700663</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <f t="shared" si="0"/>
         <v>587.0287202213126</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1421,30 +1485,33 @@
         <f t="shared" si="1"/>
         <v>000033819</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
+      <c r="D10" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
         <v>21</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>25</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="6">
         <v>45.898883485806401</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="6">
         <f t="shared" si="0"/>
         <v>1147.47208714516</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1455,30 +1522,33 @@
         <f t="shared" si="1"/>
         <v>000033819</v>
       </c>
-      <c r="D11" t="s">
-        <v>10</v>
+      <c r="D11" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
         <v>22</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>8</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="6">
         <v>71.899251013354387</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J11" s="6">
         <f t="shared" si="0"/>
         <v>575.1940081068351</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1488,30 +1558,33 @@
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
-        <v>10</v>
+      <c r="D12" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
         <v>25</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>1</v>
       </c>
-      <c r="H12" s="6">
+      <c r="I12" s="6">
         <v>10000</v>
       </c>
-      <c r="I12" s="6">
+      <c r="J12" s="6">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1521,30 +1594,33 @@
       <c r="C13" s="4">
         <v>2024000</v>
       </c>
-      <c r="D13" t="s">
-        <v>10</v>
+      <c r="D13" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
         <v>26</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>1</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="6">
         <v>356</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="6">
         <f t="shared" si="0"/>
         <v>356</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1554,30 +1630,33 @@
       <c r="C14" s="4">
         <v>4340</v>
       </c>
-      <c r="D14" t="s">
-        <v>10</v>
+      <c r="D14" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>120</v>
       </c>
-      <c r="H14" s="6">
-        <f>I14/G14</f>
+      <c r="I14" s="6">
+        <f>J14/H14</f>
         <v>18.536608536585369</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14" s="6">
         <v>2224.3930243902441</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1587,30 +1666,33 @@
       <c r="C15" s="4">
         <v>4340</v>
       </c>
-      <c r="D15" t="s">
-        <v>10</v>
+      <c r="D15" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
         <v>28</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>120</v>
       </c>
-      <c r="H15" s="6">
-        <f t="shared" ref="H15:H16" si="2">I15/G15</f>
+      <c r="I15" s="6">
+        <f t="shared" ref="I15:I16" si="2">J15/H15</f>
         <v>9.2683042682926846</v>
       </c>
-      <c r="I15" s="6">
+      <c r="J15" s="6">
         <v>1112.1965121951221</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1620,30 +1702,33 @@
       <c r="C16" s="4">
         <v>4340</v>
       </c>
-      <c r="D16" t="s">
-        <v>10</v>
+      <c r="D16" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
         <v>29</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>100</v>
       </c>
-      <c r="H16" s="6">
+      <c r="I16" s="6">
         <f t="shared" si="2"/>
         <v>4.6341463414634152</v>
       </c>
-      <c r="I16" s="6">
+      <c r="J16" s="6">
         <v>463.41463414634148</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1653,30 +1738,33 @@
       <c r="C17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D17" t="s">
-        <v>10</v>
+      <c r="D17" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>17.64</v>
       </c>
-      <c r="H17" s="6">
-        <f>I17/G17</f>
+      <c r="I17" s="6">
+        <f>J17/H17</f>
         <v>77.664399092970513</v>
       </c>
-      <c r="I17" s="6">
+      <c r="J17" s="6">
         <v>1370</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1686,30 +1774,33 @@
       <c r="C18" s="4">
         <v>5146</v>
       </c>
-      <c r="D18" t="s">
-        <v>10</v>
+      <c r="D18" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
         <v>36</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>4</v>
       </c>
-      <c r="H18" s="6">
-        <f>I18/G18</f>
+      <c r="I18" s="6">
+        <f>J18/H18</f>
         <v>29</v>
       </c>
-      <c r="I18" s="6">
+      <c r="J18" s="6">
         <v>116</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1719,30 +1810,33 @@
       <c r="C19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D19" t="s">
-        <v>10</v>
+      <c r="D19" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
         <v>39</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>4</v>
       </c>
-      <c r="H19" s="6">
+      <c r="I19" s="6">
         <v>22.25</v>
       </c>
-      <c r="I19" s="6">
+      <c r="J19" s="6">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1752,30 +1846,33 @@
       <c r="C20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D20" t="s">
-        <v>10</v>
+      <c r="D20" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
         <v>40</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>3</v>
       </c>
-      <c r="H20" s="6">
-        <v>10</v>
-      </c>
       <c r="I20" s="6">
+        <v>10</v>
+      </c>
+      <c r="J20" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K20" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>9</v>
       </c>
@@ -1785,30 +1882,33 @@
       <c r="C21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="11" t="s">
+      <c r="D21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="G21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="10">
+      <c r="H21" s="10">
         <v>100</v>
       </c>
-      <c r="H21" s="12">
+      <c r="I21" s="12">
         <v>31</v>
       </c>
-      <c r="I21" s="12">
+      <c r="J21" s="12">
         <f t="shared" si="0"/>
         <v>3100</v>
       </c>
-      <c r="J21" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1819,30 +1919,33 @@
         <f>"000638"</f>
         <v>000638</v>
       </c>
-      <c r="D22" t="s">
-        <v>10</v>
+      <c r="D22" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
         <v>44</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>1</v>
       </c>
-      <c r="H22" s="6">
+      <c r="I22" s="6">
         <v>9790</v>
       </c>
-      <c r="I22" s="6">
+      <c r="J22" s="6">
         <f t="shared" si="0"/>
         <v>9790</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1852,30 +1955,33 @@
       <c r="C23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D23" t="s">
-        <v>10</v>
+      <c r="D23" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
         <v>25</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="4">
+      <c r="H23" s="4">
         <v>1</v>
       </c>
-      <c r="H23" s="6">
+      <c r="I23" s="6">
         <v>10000</v>
       </c>
-      <c r="I23" s="6">
-        <f t="shared" ref="I23" si="3">G23*H23</f>
+      <c r="J23" s="6">
+        <f t="shared" ref="J23" si="3">H23*I23</f>
         <v>10000</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1885,30 +1991,33 @@
       <c r="C24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D24" t="s">
-        <v>10</v>
+      <c r="D24" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H24" s="4">
         <v>1</v>
       </c>
-      <c r="H24" s="6">
+      <c r="I24" s="6">
         <v>262.55</v>
       </c>
-      <c r="I24" s="6">
-        <f t="shared" ref="I24:I25" si="4">G24*H24</f>
+      <c r="J24" s="6">
+        <f t="shared" ref="J24:J25" si="4">H24*I24</f>
         <v>262.55</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1918,26 +2027,29 @@
       <c r="C25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D25" t="s">
-        <v>10</v>
+      <c r="D25" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
         <v>48</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <v>1</v>
       </c>
-      <c r="H25" s="6">
+      <c r="I25" s="6">
         <v>1070</v>
       </c>
-      <c r="I25" s="6">
+      <c r="J25" s="6">
         <f t="shared" si="4"/>
         <v>1070</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="K25" s="4" t="s">
         <v>43</v>
       </c>
     </row>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linco\Documents\Público\Pessoal\Estudos\streamlit\Lcl Finanças\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03497D12-E384-4B98-BE5D-25092A6DDB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83736E1B-9589-4A70-897A-FE3E0C205113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{5DBD2B94-81C0-4838-B20C-D5AC3920124A}"/>
+    <workbookView xWindow="4500" yWindow="840" windowWidth="21600" windowHeight="11385" xr2:uid="{5DBD2B94-81C0-4838-B20C-D5AC3920124A}"/>
   </bookViews>
   <sheets>
     <sheet name="dados" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="62">
   <si>
     <t>Projeto</t>
   </si>
@@ -1128,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B4E5DA-CF18-4382-AFE0-B2EB8B93E94F}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,13 +1139,13 @@
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2010,7 +2010,7 @@
         <v>262.55</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" ref="J24:J25" si="4">H24*I24</f>
+        <f t="shared" ref="J24:J26" si="4">H24*I24</f>
         <v>262.55</v>
       </c>
       <c r="K24" s="4" t="s">
@@ -2051,6 +2051,42 @@
       </c>
       <c r="K25" s="4" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45506</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="6">
+        <v>7000</v>
+      </c>
+      <c r="J26" s="6">
+        <f t="shared" si="4"/>
+        <v>7000</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linco\Documents\Público\Pessoal\Estudos\streamlit\Lcl Finanças\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83736E1B-9589-4A70-897A-FE3E0C205113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187CCE44-2711-4BFD-8959-19DA383C98C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="840" windowWidth="21600" windowHeight="11385" xr2:uid="{5DBD2B94-81C0-4838-B20C-D5AC3920124A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5DBD2B94-81C0-4838-B20C-D5AC3920124A}"/>
   </bookViews>
   <sheets>
     <sheet name="dados" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="67">
   <si>
     <t>Projeto</t>
   </si>
@@ -219,6 +219,21 @@
   </si>
   <si>
     <t>PLANOS CONSTRUÇÃO DE EDIFICIO</t>
+  </si>
+  <si>
+    <t>LARANJÃO</t>
+  </si>
+  <si>
+    <t>MASSAME</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>AREIA</t>
+  </si>
+  <si>
+    <t>sem NF</t>
   </si>
 </sst>
 </file>
@@ -1128,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B4E5DA-CF18-4382-AFE0-B2EB8B93E94F}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2010,7 +2025,7 @@
         <v>262.55</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" ref="J24:J26" si="4">H24*I24</f>
+        <f t="shared" ref="J24:J27" si="4">H24*I24</f>
         <v>262.55</v>
       </c>
       <c r="K24" s="4" t="s">
@@ -2087,6 +2102,78 @@
       </c>
       <c r="K26" s="4" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45504</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="6">
+        <v>700</v>
+      </c>
+      <c r="J27" s="6">
+        <f t="shared" si="4"/>
+        <v>700</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45504</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="6">
+        <v>500</v>
+      </c>
+      <c r="J28" s="6">
+        <f t="shared" ref="J28" si="5">H28*I28</f>
+        <v>500</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linco\Documents\Público\Pessoal\Estudos\streamlit\Lcl Finanças\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187CCE44-2711-4BFD-8959-19DA383C98C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00969B8E-1823-4F17-9A2D-07162FE3F55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5DBD2B94-81C0-4838-B20C-D5AC3920124A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{5DBD2B94-81C0-4838-B20C-D5AC3920124A}"/>
   </bookViews>
   <sheets>
     <sheet name="dados" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="67">
   <si>
     <t>Projeto</t>
   </si>
@@ -182,9 +182,6 @@
     <t>RACHINHA</t>
   </si>
   <si>
-    <t>vb</t>
-  </si>
-  <si>
     <t>Fornecedor</t>
   </si>
   <si>
@@ -234,6 +231,9 @@
   </si>
   <si>
     <t>sem NF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 000.008.076</t>
   </si>
 </sst>
 </file>
@@ -1143,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B4E5DA-CF18-4382-AFE0-B2EB8B93E94F}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -1209,7 +1209,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1281,7 +1281,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1390,7 +1390,7 @@
         <v>000033819</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1427,7 +1427,7 @@
         <v>000033819</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1464,7 +1464,7 @@
         <v>000033819</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1501,7 +1501,7 @@
         <v>000033819</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1538,7 +1538,7 @@
         <v>000033819</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1574,7 +1574,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1610,7 +1610,7 @@
         <v>2024000</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -1646,7 +1646,7 @@
         <v>4340</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -1682,7 +1682,7 @@
         <v>4340</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1718,7 +1718,7 @@
         <v>4340</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -1754,7 +1754,7 @@
         <v>35</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -1790,7 +1790,7 @@
         <v>5146</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1826,7 +1826,7 @@
         <v>38</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -1862,7 +1862,7 @@
         <v>38</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1898,7 +1898,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>10</v>
@@ -1935,7 +1935,7 @@
         <v>000638</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -1971,7 +1971,7 @@
         <v>16</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -2007,7 +2007,7 @@
         <v>16</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -2025,7 +2025,7 @@
         <v>262.55</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" ref="J24:J27" si="4">H24*I24</f>
+        <f t="shared" ref="J24:J26" si="4">H24*I24</f>
         <v>262.55</v>
       </c>
       <c r="K24" s="4" t="s">
@@ -2039,33 +2039,33 @@
       <c r="B25" s="1">
         <v>45506</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H25" s="4">
         <v>1</v>
       </c>
       <c r="I25" s="6">
-        <v>1070</v>
+        <v>7000</v>
       </c>
       <c r="J25" s="6">
         <f t="shared" si="4"/>
-        <v>1070</v>
+        <v>7000</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2073,35 +2073,35 @@
         <v>9</v>
       </c>
       <c r="B26" s="1">
-        <v>45506</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>52</v>
+        <v>45504</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="H26" s="4">
         <v>1</v>
       </c>
       <c r="I26" s="6">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="J26" s="6">
         <f t="shared" si="4"/>
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2115,29 +2115,29 @@
         <v>16</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
       <c r="F27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" t="s">
         <v>63</v>
-      </c>
-      <c r="G27" t="s">
-        <v>64</v>
       </c>
       <c r="H27" s="4">
         <v>1</v>
       </c>
       <c r="I27" s="6">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="J27" s="6">
-        <f t="shared" si="4"/>
-        <v>700</v>
+        <f t="shared" ref="J27:J32" si="5">H27*I27</f>
+        <v>500</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2145,35 +2145,197 @@
         <v>9</v>
       </c>
       <c r="B28" s="1">
-        <v>45504</v>
+        <v>45520</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="4">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I28" s="6">
+        <v>45.16</v>
+      </c>
+      <c r="J28" s="6">
+        <f t="shared" si="5"/>
+        <v>1679.952</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45512</v>
+      </c>
+      <c r="C29" s="4">
+        <v>34061</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="4">
+        <v>273</v>
+      </c>
+      <c r="I29" s="6">
+        <f>J29/H29</f>
+        <v>14.893076923076922</v>
+      </c>
+      <c r="J29" s="6">
+        <v>4065.81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45512</v>
+      </c>
+      <c r="C30" s="4">
+        <v>34061</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="4">
+        <v>76</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" ref="I30:I33" si="6">J30/H30</f>
+        <v>33.878157894736837</v>
+      </c>
+      <c r="J30" s="6">
+        <v>2574.7399999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45512</v>
+      </c>
+      <c r="C31" s="4">
+        <v>34061</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="4">
+        <v>138</v>
+      </c>
+      <c r="I31" s="6">
+        <f t="shared" si="6"/>
+        <v>21.880942028985508</v>
+      </c>
+      <c r="J31" s="6">
+        <v>3019.57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45512</v>
+      </c>
+      <c r="C32" s="4">
+        <v>34061</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="4">
+        <v>46</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" si="6"/>
+        <v>50.866956521739134</v>
+      </c>
+      <c r="J32" s="6">
+        <v>2339.88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45517</v>
+      </c>
+      <c r="C33" s="4">
+        <v>34158</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="4">
         <v>65</v>
       </c>
-      <c r="G28" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28" s="4">
-        <v>1</v>
-      </c>
-      <c r="I28" s="6">
-        <v>500</v>
-      </c>
-      <c r="J28" s="6">
-        <f t="shared" ref="J28" si="5">H28*I28</f>
-        <v>500</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>66</v>
+      <c r="I33" s="6">
+        <f t="shared" si="6"/>
+        <v>50.892307692307689</v>
+      </c>
+      <c r="J33" s="6">
+        <v>3308</v>
       </c>
     </row>
   </sheetData>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linco\Documents\Público\Pessoal\Estudos\streamlit\Lcl Finanças\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lincoln Cartaxo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00969B8E-1823-4F17-9A2D-07162FE3F55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F679C0-C1AA-4DEE-8F04-D4958A0CF58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{5DBD2B94-81C0-4838-B20C-D5AC3920124A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5DBD2B94-81C0-4838-B20C-D5AC3920124A}"/>
   </bookViews>
   <sheets>
     <sheet name="dados" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="70">
   <si>
     <t>Projeto</t>
   </si>
@@ -234,6 +234,15 @@
   </si>
   <si>
     <t xml:space="preserve"> 000.008.076</t>
+  </si>
+  <si>
+    <t>XXXXX</t>
+  </si>
+  <si>
+    <t>IRVISON DAYRAN</t>
+  </si>
+  <si>
+    <t>TIJOLO 8 FUROS 9X19X19</t>
   </si>
 </sst>
 </file>
@@ -1143,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B4E5DA-CF18-4382-AFE0-B2EB8B93E94F}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,7 +1167,7 @@
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
@@ -2133,7 +2142,7 @@
         <v>500</v>
       </c>
       <c r="J27" s="6">
-        <f t="shared" ref="J27:J32" si="5">H27*I27</f>
+        <f t="shared" ref="J27:J28" si="5">H27*I27</f>
         <v>500</v>
       </c>
       <c r="K27" s="4" t="s">
@@ -2172,6 +2181,9 @@
         <f t="shared" si="5"/>
         <v>1679.952</v>
       </c>
+      <c r="K28" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -2205,6 +2217,9 @@
       <c r="J29" s="6">
         <v>4065.81</v>
       </c>
+      <c r="K29" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -2238,6 +2253,9 @@
       <c r="J30" s="6">
         <v>2574.7399999999998</v>
       </c>
+      <c r="K30" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -2271,6 +2289,9 @@
       <c r="J31" s="6">
         <v>3019.57</v>
       </c>
+      <c r="K31" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -2304,8 +2325,11 @@
       <c r="J32" s="6">
         <v>2339.88</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -2336,6 +2360,45 @@
       </c>
       <c r="J33" s="6">
         <v>3308</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45538</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>69</v>
+      </c>
+      <c r="G34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I34" s="6">
+        <f>J34/H34</f>
+        <v>1.44</v>
+      </c>
+      <c r="J34" s="6">
+        <v>1440</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linco\Documents\Público\Pessoal\Estudos\streamlit\Lcl Finanças\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00969B8E-1823-4F17-9A2D-07162FE3F55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749E5F31-5543-482B-9400-BC038891672D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{5DBD2B94-81C0-4838-B20C-D5AC3920124A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5DBD2B94-81C0-4838-B20C-D5AC3920124A}"/>
   </bookViews>
   <sheets>
     <sheet name="dados" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dados!$A$1:$K$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="75">
   <si>
     <t>Projeto</t>
   </si>
@@ -234,6 +237,30 @@
   </si>
   <si>
     <t xml:space="preserve"> 000.008.076</t>
+  </si>
+  <si>
+    <t>FARIAS FABRICACAO DE PRODUTOS CERAMICOS EIRELI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BLOCO CERAMICO ESTRUTURAL 14X19X29 </t>
+  </si>
+  <si>
+    <t>IRVISON DAYRAN DA COSTA MACEDO</t>
+  </si>
+  <si>
+    <t>TIJOLOS 8 FUROS 9X19X19</t>
+  </si>
+  <si>
+    <t>DESCARREGAMENTO 8 MIL TIJOLOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TIJOLOS 8 FUROS 9X19X19</t>
+  </si>
+  <si>
+    <t>ARAME</t>
+  </si>
+  <si>
+    <t>JUCIEL DA SILVA MARIANO</t>
   </si>
 </sst>
 </file>
@@ -733,9 +760,8 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -766,6 +792,12 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1143,58 +1175,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B4E5DA-CF18-4382-AFE0-B2EB8B93E94F}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1202,35 +1234,35 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
-        <v>45481</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="8">
+        <v>45478</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>1</v>
       </c>
-      <c r="I2" s="6">
-        <v>200</v>
-      </c>
-      <c r="J2" s="6">
+      <c r="I2" s="5">
+        <v>100</v>
+      </c>
+      <c r="J2" s="5">
         <f>H2*I2</f>
-        <v>200</v>
-      </c>
-      <c r="K2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1238,35 +1270,35 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
-        <v>45478</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="8">
+        <v>45481</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>1</v>
       </c>
-      <c r="I3" s="6">
-        <v>100</v>
-      </c>
-      <c r="J3" s="6">
-        <f t="shared" ref="J3:J22" si="0">H3*I3</f>
-        <v>100</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="I3" s="5">
+        <v>200</v>
+      </c>
+      <c r="J3" s="5">
+        <f>H3*I3</f>
+        <v>200</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1274,13 +1306,13 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="8">
         <v>45481</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E4" t="s">
@@ -1292,17 +1324,17 @@
       <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>300</v>
       </c>
-      <c r="J4" s="6">
-        <f t="shared" si="0"/>
+      <c r="J4" s="5">
+        <f>H4*I4</f>
         <v>300</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1310,13 +1342,13 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="8">
         <v>45485</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
@@ -1328,17 +1360,17 @@
       <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>950</v>
       </c>
-      <c r="J5" s="6">
-        <f t="shared" si="0"/>
+      <c r="J5" s="5">
+        <f>H5*I5</f>
         <v>950</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1346,13 +1378,13 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="8">
         <v>45489</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
@@ -1364,91 +1396,91 @@
       <c r="G6" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>1000</v>
       </c>
-      <c r="J6" s="6">
-        <f t="shared" si="0"/>
+      <c r="J6" s="5">
+        <f>H6*I6</f>
         <v>1000</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8">
+        <v>45499</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f>"000638"</f>
+        <v>000638</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>9790</v>
+      </c>
+      <c r="J7" s="5">
+        <f>H7*I7</f>
+        <v>9790</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="8">
         <v>45503</v>
       </c>
-      <c r="C7" s="5" t="str">
+      <c r="C8" s="4" t="str">
         <f>"000033819"</f>
         <v>000033819</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
         <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="4">
-        <v>7</v>
-      </c>
-      <c r="I7" s="6">
-        <v>13.499671613472472</v>
-      </c>
-      <c r="J7" s="6">
-        <f t="shared" si="0"/>
-        <v>94.497701294307305</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>45503</v>
-      </c>
-      <c r="C8" s="5" t="str">
-        <f t="shared" ref="C8:C11" si="1">"000033819"</f>
-        <v>000033819</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
       </c>
       <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="4">
-        <v>15</v>
-      </c>
-      <c r="I8" s="6">
-        <v>20.600498882158991</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" si="0"/>
-        <v>309.00748323238486</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="H8" s="3">
+        <v>7</v>
+      </c>
+      <c r="I8" s="5">
+        <v>13.499671613472472</v>
+      </c>
+      <c r="J8" s="5">
+        <f>H8*I8</f>
+        <v>94.497701294307305</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1456,36 +1488,36 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="8">
         <v>45503</v>
       </c>
-      <c r="C9" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="C9" s="4" t="str">
+        <f>"000033819"</f>
         <v>000033819</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="4">
-        <v>19</v>
-      </c>
-      <c r="I9" s="6">
-        <v>30.896248432700663</v>
-      </c>
-      <c r="J9" s="6">
-        <f t="shared" si="0"/>
-        <v>587.0287202213126</v>
-      </c>
-      <c r="K9" s="4" t="s">
+      <c r="H9" s="3">
+        <v>15</v>
+      </c>
+      <c r="I9" s="5">
+        <v>20.600498882158991</v>
+      </c>
+      <c r="J9" s="5">
+        <f>H9*I9</f>
+        <v>309.00748323238486</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1493,36 +1525,36 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="8">
         <v>45503</v>
       </c>
-      <c r="C10" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="C10" s="4" t="str">
+        <f>"000033819"</f>
         <v>000033819</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="4">
-        <v>25</v>
-      </c>
-      <c r="I10" s="6">
-        <v>45.898883485806401</v>
-      </c>
-      <c r="J10" s="6">
-        <f t="shared" si="0"/>
-        <v>1147.47208714516</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="H10" s="3">
+        <v>19</v>
+      </c>
+      <c r="I10" s="5">
+        <v>30.896248432700663</v>
+      </c>
+      <c r="J10" s="5">
+        <f>H10*I10</f>
+        <v>587.0287202213126</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1530,36 +1562,36 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="8">
         <v>45503</v>
       </c>
-      <c r="C11" s="5" t="str">
-        <f t="shared" si="1"/>
+      <c r="C11" s="4" t="str">
+        <f>"000033819"</f>
         <v>000033819</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="4">
-        <v>8</v>
-      </c>
-      <c r="I11" s="6">
-        <v>71.899251013354387</v>
-      </c>
-      <c r="J11" s="6">
-        <f t="shared" si="0"/>
-        <v>575.1940081068351</v>
-      </c>
-      <c r="K11" s="4" t="s">
+      <c r="H11" s="3">
+        <v>25</v>
+      </c>
+      <c r="I11" s="5">
+        <v>45.898883485806401</v>
+      </c>
+      <c r="J11" s="5">
+        <f>H11*I11</f>
+        <v>1147.47208714516</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1567,49 +1599,50 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1">
-        <v>45504</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>51</v>
+      <c r="B12" s="8">
+        <v>45503</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <f>"000033819"</f>
+        <v>000033819</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-      <c r="I12" s="6">
-        <v>10000</v>
-      </c>
-      <c r="J12" s="6">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="H12" s="3">
+        <v>8</v>
+      </c>
+      <c r="I12" s="5">
+        <v>71.899251013354387</v>
+      </c>
+      <c r="J12" s="5">
+        <f>H12*I12</f>
+        <v>575.1940081068351</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="8">
         <v>45503</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>2024000</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E13" t="s">
@@ -1621,17 +1654,17 @@
       <c r="G13" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>1</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>356</v>
       </c>
-      <c r="J13" s="6">
-        <f t="shared" si="0"/>
+      <c r="J13" s="5">
+        <f>H13*I13</f>
         <v>356</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1639,13 +1672,13 @@
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="8">
         <v>45503</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>4340</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E14" t="s">
@@ -1657,17 +1690,17 @@
       <c r="G14" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>120</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <f>J14/H14</f>
         <v>18.536608536585369</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>2224.3930243902441</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1675,13 +1708,13 @@
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="8">
         <v>45503</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>4340</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E15" t="s">
@@ -1693,17 +1726,17 @@
       <c r="G15" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>120</v>
       </c>
-      <c r="I15" s="6">
-        <f t="shared" ref="I15:I16" si="2">J15/H15</f>
+      <c r="I15" s="5">
+        <f>J15/H15</f>
         <v>9.2683042682926846</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>1112.1965121951221</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1711,13 +1744,13 @@
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="8">
         <v>45503</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>4340</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E16" t="s">
@@ -1729,17 +1762,17 @@
       <c r="G16" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>100</v>
       </c>
-      <c r="I16" s="6">
-        <f t="shared" si="2"/>
+      <c r="I16" s="5">
+        <f>J16/H16</f>
         <v>4.6341463414634152</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <v>463.41463414634148</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1747,13 +1780,13 @@
       <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="8">
         <v>45503</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E17" t="s">
@@ -1765,17 +1798,17 @@
       <c r="G17" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>17.64</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <f>J17/H17</f>
         <v>77.664399092970513</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>1370</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1783,13 +1816,13 @@
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="8">
         <v>45503</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>5146</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E18" t="s">
@@ -1801,17 +1834,17 @@
       <c r="G18" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>4</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <f>J18/H18</f>
         <v>29</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <v>116</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1819,13 +1852,13 @@
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="8">
         <v>45503</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E19" t="s">
@@ -1837,17 +1870,17 @@
       <c r="G19" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>4</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <v>22.25</v>
       </c>
-      <c r="J19" s="6">
-        <f t="shared" si="0"/>
+      <c r="J19" s="5">
+        <f>H19*I19</f>
         <v>89</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1855,13 +1888,13 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="8">
         <v>45503</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E20" t="s">
@@ -1873,90 +1906,89 @@
       <c r="G20" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>3</v>
       </c>
-      <c r="I20" s="6">
-        <v>10</v>
-      </c>
-      <c r="J20" s="6">
-        <f t="shared" si="0"/>
+      <c r="I20" s="5">
+        <v>10</v>
+      </c>
+      <c r="J20" s="5">
+        <f>H20*I20</f>
         <v>30</v>
       </c>
-      <c r="K20" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="9">
+      <c r="K20" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="8">
         <v>45503</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="11" t="s">
+      <c r="E21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="9">
         <v>100</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="11">
         <v>31</v>
       </c>
-      <c r="J21" s="12">
-        <f t="shared" si="0"/>
+      <c r="J21" s="11">
+        <f>H21*I21</f>
         <v>3100</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="1">
-        <v>45499</v>
-      </c>
-      <c r="C22" s="4" t="str">
-        <f>"000638"</f>
-        <v>000638</v>
+        <v>9</v>
+      </c>
+      <c r="B22" s="8">
+        <v>45504</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G22" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>1</v>
       </c>
-      <c r="I22" s="6">
-        <v>9790</v>
-      </c>
-      <c r="J22" s="6">
-        <f t="shared" si="0"/>
-        <v>9790</v>
-      </c>
-      <c r="K22" s="4" t="s">
+      <c r="I22" s="5">
+        <v>10000</v>
+      </c>
+      <c r="J22" s="5">
+        <f>H22*I22</f>
+        <v>10000</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1964,85 +1996,85 @@
       <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="1">
-        <v>45505</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>51</v>
+      <c r="B23" s="8">
+        <v>45504</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="4">
+        <v>63</v>
+      </c>
+      <c r="H23" s="3">
         <v>1</v>
       </c>
-      <c r="I23" s="6">
-        <v>10000</v>
-      </c>
-      <c r="J23" s="6">
-        <f t="shared" ref="J23" si="3">H23*I23</f>
-        <v>10000</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>16</v>
+      <c r="I23" s="5">
+        <v>700</v>
+      </c>
+      <c r="J23" s="5">
+        <f>H23*I23</f>
+        <v>700</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="1">
-        <v>45505</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>58</v>
+      <c r="B24" s="8">
+        <v>45504</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="4">
+        <v>63</v>
+      </c>
+      <c r="H24" s="3">
         <v>1</v>
       </c>
-      <c r="I24" s="6">
-        <v>262.55</v>
-      </c>
-      <c r="J24" s="6">
-        <f t="shared" ref="J24:J26" si="4">H24*I24</f>
-        <v>262.55</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>16</v>
+      <c r="I24" s="5">
+        <v>500</v>
+      </c>
+      <c r="J24" s="5">
+        <f>H24*I24</f>
+        <v>500</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="1">
-        <v>45506</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="B25" s="8">
+        <v>45505</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E25" t="s">
@@ -2054,17 +2086,17 @@
       <c r="G25" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>1</v>
       </c>
-      <c r="I25" s="6">
-        <v>7000</v>
-      </c>
-      <c r="J25" s="6">
-        <f t="shared" si="4"/>
-        <v>7000</v>
-      </c>
-      <c r="K25" s="4" t="s">
+      <c r="I25" s="5">
+        <v>10000</v>
+      </c>
+      <c r="J25" s="5">
+        <f>H25*I25</f>
+        <v>10000</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2072,217 +2104,229 @@
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="1">
-        <v>45504</v>
+      <c r="B26" s="8">
+        <v>45505</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
-      </c>
-      <c r="H26" s="4">
+        <v>30</v>
+      </c>
+      <c r="H26" s="3">
         <v>1</v>
       </c>
-      <c r="I26" s="6">
-        <v>700</v>
-      </c>
-      <c r="J26" s="6">
-        <f t="shared" si="4"/>
-        <v>700</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>65</v>
+      <c r="I26" s="5">
+        <v>262.55</v>
+      </c>
+      <c r="J26" s="5">
+        <f>H26*I26</f>
+        <v>262.55</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="1">
-        <v>45504</v>
+      <c r="B27" s="8">
+        <v>45506</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="G27" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="4">
+        <v>30</v>
+      </c>
+      <c r="H27" s="3">
         <v>1</v>
       </c>
-      <c r="I27" s="6">
-        <v>500</v>
-      </c>
-      <c r="J27" s="6">
-        <f t="shared" ref="J27:J32" si="5">H27*I27</f>
-        <v>500</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>65</v>
+      <c r="I27" s="5">
+        <v>7000</v>
+      </c>
+      <c r="J27" s="5">
+        <f>H27*I27</f>
+        <v>7000</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="1">
-        <v>45520</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>54</v>
+      <c r="B28" s="8">
+        <v>45512</v>
+      </c>
+      <c r="C28" s="3">
+        <v>34061</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="4">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="I28" s="6">
-        <v>45.16</v>
-      </c>
-      <c r="J28" s="6">
-        <f t="shared" si="5"/>
-        <v>1679.952</v>
+        <v>30</v>
+      </c>
+      <c r="H28" s="3">
+        <v>273</v>
+      </c>
+      <c r="I28" s="5">
+        <f>J28/H28</f>
+        <v>14.893076923076922</v>
+      </c>
+      <c r="J28" s="5">
+        <v>4065.81</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="8">
         <v>45512</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>34061</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G29" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="4">
-        <v>273</v>
-      </c>
-      <c r="I29" s="6">
+      <c r="H29" s="3">
+        <v>76</v>
+      </c>
+      <c r="I29" s="5">
         <f>J29/H29</f>
-        <v>14.893076923076922</v>
-      </c>
-      <c r="J29" s="6">
-        <v>4065.81</v>
+        <v>33.878157894736837</v>
+      </c>
+      <c r="J29" s="5">
+        <v>2574.7399999999998</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="8">
         <v>45512</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>34061</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
         <v>30</v>
       </c>
-      <c r="H30" s="4">
-        <v>76</v>
-      </c>
-      <c r="I30" s="6">
-        <f t="shared" ref="I30:I33" si="6">J30/H30</f>
-        <v>33.878157894736837</v>
-      </c>
-      <c r="J30" s="6">
-        <v>2574.7399999999998</v>
+      <c r="H30" s="3">
+        <v>138</v>
+      </c>
+      <c r="I30" s="5">
+        <f>J30/H30</f>
+        <v>21.880942028985508</v>
+      </c>
+      <c r="J30" s="5">
+        <v>3019.57</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="8">
         <v>45512</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>34061</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G31" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="4">
-        <v>138</v>
-      </c>
-      <c r="I31" s="6">
-        <f t="shared" si="6"/>
-        <v>21.880942028985508</v>
-      </c>
-      <c r="J31" s="6">
-        <v>3019.57</v>
+      <c r="H31" s="3">
+        <v>46</v>
+      </c>
+      <c r="I31" s="5">
+        <f>J31/H31</f>
+        <v>50.866956521739134</v>
+      </c>
+      <c r="J31" s="5">
+        <v>2339.88</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="1">
-        <v>45512</v>
-      </c>
-      <c r="C32" s="4">
-        <v>34061</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="B32" s="8">
+        <v>45517</v>
+      </c>
+      <c r="C32" s="3">
+        <v>34158</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E32" t="s">
@@ -2294,51 +2338,402 @@
       <c r="G32" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="4">
-        <v>46</v>
-      </c>
-      <c r="I32" s="6">
-        <f t="shared" si="6"/>
-        <v>50.866956521739134</v>
-      </c>
-      <c r="J32" s="6">
-        <v>2339.88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H32" s="3">
+        <v>65</v>
+      </c>
+      <c r="I32" s="5">
+        <f>J32/H32</f>
+        <v>50.892307692307689</v>
+      </c>
+      <c r="J32" s="5">
+        <v>3308</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="1">
-        <v>45517</v>
-      </c>
-      <c r="C33" s="4">
-        <v>34158</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>50</v>
+      <c r="B33" s="8">
+        <v>45520</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="G33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="3">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I33" s="5">
+        <v>45.16</v>
+      </c>
+      <c r="J33" s="5">
+        <f>H33*I33</f>
+        <v>1679.952</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="8">
+        <v>45530</v>
+      </c>
+      <c r="C34" s="3">
+        <v>369</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="4">
-        <v>65</v>
-      </c>
-      <c r="I33" s="6">
-        <f t="shared" si="6"/>
-        <v>50.892307692307689</v>
-      </c>
-      <c r="J33" s="6">
-        <v>3308</v>
+      <c r="H34" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I34" s="5">
+        <f>J34/H34</f>
+        <v>1.9076923076923078</v>
+      </c>
+      <c r="J34" s="5">
+        <v>2480</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="8">
+        <v>45533</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I35" s="5">
+        <f>J35/H35</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J35" s="5">
+        <v>2850</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="8">
+        <v>45534</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5">
+        <v>288</v>
+      </c>
+      <c r="J36" s="5">
+        <f>H36*I36</f>
+        <v>288</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="8">
+        <v>45534</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J37" s="5">
+        <f>H37*I37</f>
+        <v>1000</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="8">
+        <v>45534</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="9">
+        <v>100</v>
+      </c>
+      <c r="I38" s="11">
+        <v>32</v>
+      </c>
+      <c r="J38" s="11">
+        <f>H38*I38</f>
+        <v>3200</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="8">
+        <v>45538</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="J39" s="5">
+        <f>H39*I39</f>
+        <v>700</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="8">
+        <v>45539</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I40" s="5">
+        <f>J40/H40</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J40" s="5">
+        <v>4400</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="8">
+        <v>45539</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1</v>
+      </c>
+      <c r="I41" s="5">
+        <v>200</v>
+      </c>
+      <c r="J41" s="5">
+        <f>H41*I41</f>
+        <v>200</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="8">
+        <v>45543</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
+      <c r="I42" s="5">
+        <v>12000</v>
+      </c>
+      <c r="J42" s="5">
+        <f>H42*I42</f>
+        <v>12000</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="8">
+        <v>45544</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1</v>
+      </c>
+      <c r="I43" s="5">
+        <v>11000</v>
+      </c>
+      <c r="J43" s="5">
+        <f>H43*I43</f>
+        <v>11000</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{C8B4E5DA-CF18-4382-AFE0-B2EB8B93E94F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K43">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linco\Documents\Público\Pessoal\Estudos\streamlit\Lcl Finanças\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749E5F31-5543-482B-9400-BC038891672D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A35EEAE-3FEF-47AA-86CE-BF04F4D203F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5DBD2B94-81C0-4838-B20C-D5AC3920124A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="75">
   <si>
     <t>Projeto</t>
   </si>
@@ -412,7 +412,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -595,6 +595,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,7 +766,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -798,6 +804,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1175,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B4E5DA-CF18-4382-AFE0-B2EB8B93E94F}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,7 +1268,7 @@
         <v>100</v>
       </c>
       <c r="J2" s="5">
-        <f>H2*I2</f>
+        <f t="shared" ref="J2:J13" si="0">H2*I2</f>
         <v>100</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -1295,7 +1304,7 @@
         <v>200</v>
       </c>
       <c r="J3" s="5">
-        <f>H3*I3</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="K3" s="3" t="s">
@@ -1331,7 +1340,7 @@
         <v>300</v>
       </c>
       <c r="J4" s="5">
-        <f>H4*I4</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="K4" s="3" t="s">
@@ -1367,7 +1376,7 @@
         <v>950</v>
       </c>
       <c r="J5" s="5">
-        <f>H5*I5</f>
+        <f t="shared" si="0"/>
         <v>950</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -1403,7 +1412,7 @@
         <v>1000</v>
       </c>
       <c r="J6" s="5">
-        <f>H6*I6</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -1440,7 +1449,7 @@
         <v>9790</v>
       </c>
       <c r="J7" s="5">
-        <f>H7*I7</f>
+        <f t="shared" si="0"/>
         <v>9790</v>
       </c>
       <c r="K7" s="3" t="s">
@@ -1477,7 +1486,7 @@
         <v>13.499671613472472</v>
       </c>
       <c r="J8" s="5">
-        <f>H8*I8</f>
+        <f t="shared" si="0"/>
         <v>94.497701294307305</v>
       </c>
       <c r="K8" s="3" t="s">
@@ -1514,7 +1523,7 @@
         <v>20.600498882158991</v>
       </c>
       <c r="J9" s="5">
-        <f>H9*I9</f>
+        <f t="shared" si="0"/>
         <v>309.00748323238486</v>
       </c>
       <c r="K9" s="3" t="s">
@@ -1551,7 +1560,7 @@
         <v>30.896248432700663</v>
       </c>
       <c r="J10" s="5">
-        <f>H10*I10</f>
+        <f t="shared" si="0"/>
         <v>587.0287202213126</v>
       </c>
       <c r="K10" s="3" t="s">
@@ -1588,7 +1597,7 @@
         <v>45.898883485806401</v>
       </c>
       <c r="J11" s="5">
-        <f>H11*I11</f>
+        <f t="shared" si="0"/>
         <v>1147.47208714516</v>
       </c>
       <c r="K11" s="3" t="s">
@@ -1625,7 +1634,7 @@
         <v>71.899251013354387</v>
       </c>
       <c r="J12" s="5">
-        <f>H12*I12</f>
+        <f t="shared" si="0"/>
         <v>575.1940081068351</v>
       </c>
       <c r="K12" s="3" t="s">
@@ -1661,7 +1670,7 @@
         <v>356</v>
       </c>
       <c r="J13" s="5">
-        <f>H13*I13</f>
+        <f t="shared" si="0"/>
         <v>356</v>
       </c>
       <c r="K13" s="3" t="s">
@@ -1877,7 +1886,7 @@
         <v>22.25</v>
       </c>
       <c r="J19" s="5">
-        <f>H19*I19</f>
+        <f t="shared" ref="J19:J27" si="1">H19*I19</f>
         <v>89</v>
       </c>
       <c r="K19" s="3" t="s">
@@ -1913,7 +1922,7 @@
         <v>10</v>
       </c>
       <c r="J20" s="5">
-        <f>H20*I20</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="K20" s="3" t="s">
@@ -1949,7 +1958,7 @@
         <v>31</v>
       </c>
       <c r="J21" s="11">
-        <f>H21*I21</f>
+        <f t="shared" si="1"/>
         <v>3100</v>
       </c>
       <c r="K21" s="9" t="s">
@@ -1985,7 +1994,7 @@
         <v>10000</v>
       </c>
       <c r="J22" s="5">
-        <f>H22*I22</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="K22" s="3" t="s">
@@ -2021,7 +2030,7 @@
         <v>700</v>
       </c>
       <c r="J23" s="5">
-        <f>H23*I23</f>
+        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="K23" s="3" t="s">
@@ -2057,7 +2066,7 @@
         <v>500</v>
       </c>
       <c r="J24" s="5">
-        <f>H24*I24</f>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
       <c r="K24" s="3" t="s">
@@ -2093,7 +2102,7 @@
         <v>10000</v>
       </c>
       <c r="J25" s="5">
-        <f>H25*I25</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="K25" s="3" t="s">
@@ -2129,7 +2138,7 @@
         <v>262.55</v>
       </c>
       <c r="J26" s="5">
-        <f>H26*I26</f>
+        <f t="shared" si="1"/>
         <v>262.55</v>
       </c>
       <c r="K26" s="3" t="s">
@@ -2165,7 +2174,7 @@
         <v>7000</v>
       </c>
       <c r="J27" s="5">
-        <f>H27*I27</f>
+        <f t="shared" si="1"/>
         <v>7000</v>
       </c>
       <c r="K27" s="3" t="s">
@@ -2380,7 +2389,7 @@
       <c r="I33" s="5">
         <v>45.16</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="14">
         <f>H33*I33</f>
         <v>1679.952</v>
       </c>
@@ -2726,6 +2735,36 @@
       </c>
       <c r="K43" s="3" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="8">
+        <v>45520</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1</v>
+      </c>
+      <c r="I44" s="5">
+        <v>1070</v>
+      </c>
+      <c r="J44" s="5">
+        <f>H44*I44</f>
+        <v>1070</v>
       </c>
     </row>
   </sheetData>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linco\Documents\Público\Pessoal\Estudos\streamlit\Lcl Finanças\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A35EEAE-3FEF-47AA-86CE-BF04F4D203F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C6856A-62BE-4678-BE8E-AC6873067DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5DBD2B94-81C0-4838-B20C-D5AC3920124A}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{5DBD2B94-81C0-4838-B20C-D5AC3920124A}"/>
   </bookViews>
   <sheets>
     <sheet name="dados" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dados!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dados!$A$1:$K$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="89">
   <si>
     <t>Projeto</t>
   </si>
@@ -261,6 +261,48 @@
   </si>
   <si>
     <t>JUCIEL DA SILVA MARIANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 000.001.765</t>
+  </si>
+  <si>
+    <t>AREIA E MASSAME</t>
+  </si>
+  <si>
+    <t>Madeirite+Descarregamento caminhão</t>
+  </si>
+  <si>
+    <t>000.002.225</t>
+  </si>
+  <si>
+    <t>000.002.224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB GALV IND 1.1/4 - 1,25MM [31,75]CH.18 </t>
+  </si>
+  <si>
+    <t>TB GALV IND 2" - 1,25MM [50,80]CH.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ARAME RECOZIDO - 18</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>AÇO 8MM</t>
+  </si>
+  <si>
+    <t>ELETRO LASER</t>
+  </si>
+  <si>
+    <t>ELETRODUTO</t>
+  </si>
+  <si>
+    <t>SOL PREMOLDADO</t>
+  </si>
+  <si>
+    <t>LAJE PRE-MOLDADA</t>
   </si>
 </sst>
 </file>
@@ -1184,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B4E5DA-CF18-4382-AFE0-B2EB8B93E94F}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,7 +1239,7 @@
     <col min="3" max="3" width="11.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -2539,7 +2581,9 @@
       <c r="B38" s="8">
         <v>45534</v>
       </c>
-      <c r="C38" s="9"/>
+      <c r="C38" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="D38" s="9" t="s">
         <v>52</v>
       </c>
@@ -2767,8 +2811,442 @@
         <v>1070</v>
       </c>
     </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="8">
+        <v>45545</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I45" s="5">
+        <f>J45/H45</f>
+        <v>0.58888888888888891</v>
+      </c>
+      <c r="J45" s="5">
+        <v>5300</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="8">
+        <v>45548</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>76</v>
+      </c>
+      <c r="G46" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1</v>
+      </c>
+      <c r="I46" s="5">
+        <v>1200</v>
+      </c>
+      <c r="J46" s="5">
+        <f>H46*I46</f>
+        <v>1200</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="8">
+        <v>45548</v>
+      </c>
+      <c r="C47">
+        <v>34935</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>80</v>
+      </c>
+      <c r="G47" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" s="3">
+        <v>20</v>
+      </c>
+      <c r="I47" s="5">
+        <f>J47/H47</f>
+        <v>63.532348607542531</v>
+      </c>
+      <c r="J47" s="5">
+        <v>1270.6469721508506</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="8">
+        <v>45548</v>
+      </c>
+      <c r="C48">
+        <v>34935</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>81</v>
+      </c>
+      <c r="G48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="3">
+        <v>15</v>
+      </c>
+      <c r="I48" s="5">
+        <f t="shared" ref="I48:I49" si="2">J48/H48</f>
+        <v>107.35707066402014</v>
+      </c>
+      <c r="J48" s="5">
+        <v>1610.3560599603022</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="8">
+        <v>45548</v>
+      </c>
+      <c r="C49">
+        <v>34935</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>82</v>
+      </c>
+      <c r="G49" t="s">
+        <v>83</v>
+      </c>
+      <c r="H49" s="3">
+        <v>6</v>
+      </c>
+      <c r="I49" s="5">
+        <f t="shared" si="2"/>
+        <v>12.499494648141157</v>
+      </c>
+      <c r="J49" s="5">
+        <v>74.996967888846939</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="8">
+        <v>45549</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>77</v>
+      </c>
+      <c r="G50" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50" s="3">
+        <v>1</v>
+      </c>
+      <c r="I50" s="5">
+        <v>288</v>
+      </c>
+      <c r="J50" s="5">
+        <f>H50*I50</f>
+        <v>288</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="8">
+        <v>45549</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" s="9">
+        <v>100</v>
+      </c>
+      <c r="I51" s="11">
+        <v>32</v>
+      </c>
+      <c r="J51" s="11">
+        <f>H51*I51</f>
+        <v>3200</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="8">
+        <v>45374</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" t="s">
+        <v>34</v>
+      </c>
+      <c r="H52" s="3">
+        <v>17.64</v>
+      </c>
+      <c r="I52" s="5">
+        <f>J52/H52</f>
+        <v>77.664399092970513</v>
+      </c>
+      <c r="J52" s="5">
+        <v>1370</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="8">
+        <v>45560</v>
+      </c>
+      <c r="C53"/>
+      <c r="D53" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>84</v>
+      </c>
+      <c r="G53" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" s="3">
+        <v>1</v>
+      </c>
+      <c r="I53" s="5">
+        <v>1679</v>
+      </c>
+      <c r="J53" s="5">
+        <f>I53*H53</f>
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="8">
+        <v>45560</v>
+      </c>
+      <c r="C54"/>
+      <c r="D54" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>82</v>
+      </c>
+      <c r="G54" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1</v>
+      </c>
+      <c r="I54" s="5">
+        <v>240</v>
+      </c>
+      <c r="J54" s="5">
+        <f>I54*H54</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="8">
+        <v>45561</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>86</v>
+      </c>
+      <c r="G55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" s="3">
+        <v>1</v>
+      </c>
+      <c r="I55" s="5">
+        <v>3429.56</v>
+      </c>
+      <c r="J55" s="5">
+        <f>I55*H55</f>
+        <v>3429.56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="8">
+        <v>45562</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>76</v>
+      </c>
+      <c r="G56" t="s">
+        <v>30</v>
+      </c>
+      <c r="H56" s="3">
+        <v>1</v>
+      </c>
+      <c r="I56" s="5">
+        <v>1200</v>
+      </c>
+      <c r="J56" s="5">
+        <f>H56*I56</f>
+        <v>1200</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="8">
+        <v>45562</v>
+      </c>
+      <c r="C57" s="3">
+        <v>130</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>88</v>
+      </c>
+      <c r="G57" t="s">
+        <v>30</v>
+      </c>
+      <c r="H57" s="3">
+        <v>43.5</v>
+      </c>
+      <c r="I57" s="5">
+        <f>J57/H57</f>
+        <v>52.699999999999996</v>
+      </c>
+      <c r="J57" s="5">
+        <v>2292.4499999999998</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K1" xr:uid="{C8B4E5DA-CF18-4382-AFE0-B2EB8B93E94F}">
+  <autoFilter ref="A1:K51" xr:uid="{C8B4E5DA-CF18-4382-AFE0-B2EB8B93E94F}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K43">
       <sortCondition ref="B1"/>
     </sortState>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linco\Documents\Público\Pessoal\Estudos\streamlit\Lcl Finanças\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C6856A-62BE-4678-BE8E-AC6873067DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6741A668-E551-4564-89A3-B647BEB9217C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{5DBD2B94-81C0-4838-B20C-D5AC3920124A}"/>
+    <workbookView xWindow="2865" yWindow="3570" windowWidth="21600" windowHeight="11385" xr2:uid="{5DBD2B94-81C0-4838-B20C-D5AC3920124A}"/>
   </bookViews>
   <sheets>
     <sheet name="dados" sheetId="1" r:id="rId1"/>
@@ -1228,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B4E5DA-CF18-4382-AFE0-B2EB8B93E94F}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3056,7 +3056,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="8">
-        <v>45374</v>
+        <v>45558</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>54</v>
